--- a/frontend/tp21-main/public/exportFiles/eng/Early Childhood Education (0–5 years) Checklist - Eng.xlsx
+++ b/frontend/tp21-main/public/exportFiles/eng/Early Childhood Education (0–5 years) Checklist - Eng.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beckii\Desktop\monash\5120 IE\Main project\data\journey\Checklists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beckii\Desktop\monash\5120 IE\Main project\data\journey\exportFiles\exportFiles\eng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69078554-4918-4497-87AB-9723744EE807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96B1A35-4CB0-4DA5-9283-ED1F49B6005E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,9 +205,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -220,16 +217,19 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -519,83 +519,83 @@
     <col min="2" max="2" width="60.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" s="6" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" s="6" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -606,8 +606,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A11" xr:uid="{6D45B3E6-AD51-470E-871E-3D9EC02C46E9}">
-      <formula1>"Ready,"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A11" xr:uid="{719F54A0-65FE-4F7B-8746-2A75522575D9}">
+      <formula1>"√,"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
